--- a/medicine/Œil et vue/Raphigraphe/Raphigraphe.xlsx
+++ b/medicine/Œil et vue/Raphigraphe/Raphigraphe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un raphigraphe est une machine à écrire permettant aux aveugles de correspondre avec les clairvoyants.
-Inventée en 1841[1] par Pierre-François-Victor Foucault, cette machine utilise le système de l’anaglyptographie (« impression en relief » à l'usage des aveugles), ancien nom du système Braille[2]:80.
+Inventée en 1841 par Pierre-François-Victor Foucault, cette machine utilise le système de l’anaglyptographie (« impression en relief » à l'usage des aveugles), ancien nom du système Braille:80.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Initialement appelé  « planche à pistons » par son inventeur Pierre-François-Victor Foucault, le raphigraphe permet d'écrire à la machine l'écriture inventée par Louis Braille, dont Foucault, passionné de mécanique, était un ami[1]. Pour cela, le raphigraphe comporte un clavier vertical avec dix touches ; à l’aide d’un papier carbone, ces touches permettent d’imprimer  une colonne de dix points. En avançant le clavier à plusieurs reprises, il est possible de former toutes les lettres, les chiffres et la ponctuation[3].
-Louis Braille connaissait cette machine, qu'il appréciait, et qui lui donna l'idée d'un autre raphigraphe pour permettre aux non-voyants d'écrire la musique de façon lisible par les voyants[3].
-Relativement facile à utiliser, le raphigraphe a permis une écriture plus rapide du braille, et a de ce fait été longtemps utilisé à l'Institut national des jeunes aveugles. Cependant, il n'a pas survécu à l'invention, vers 1870, de la machine à écrire, que les aveugles ont rapidement appris à utiliser malgré l'impossibilité pour eux de se relire[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Initialement appelé  « planche à pistons » par son inventeur Pierre-François-Victor Foucault, le raphigraphe permet d'écrire à la machine l'écriture inventée par Louis Braille, dont Foucault, passionné de mécanique, était un ami. Pour cela, le raphigraphe comporte un clavier vertical avec dix touches ; à l’aide d’un papier carbone, ces touches permettent d’imprimer  une colonne de dix points. En avançant le clavier à plusieurs reprises, il est possible de former toutes les lettres, les chiffres et la ponctuation.
+Louis Braille connaissait cette machine, qu'il appréciait, et qui lui donna l'idée d'un autre raphigraphe pour permettre aux non-voyants d'écrire la musique de façon lisible par les voyants.
+Relativement facile à utiliser, le raphigraphe a permis une écriture plus rapide du braille, et a de ce fait été longtemps utilisé à l'Institut national des jeunes aveugles. Cependant, il n'a pas survécu à l'invention, vers 1870, de la machine à écrire, que les aveugles ont rapidement appris à utiliser malgré l'impossibilité pour eux de se relire.
 </t>
         </is>
       </c>
@@ -545,9 +559,11 @@
           <t>Impact sur la société</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette ancienne machine et son système d’anaglyptographie, ont joué un rôle particulièrement important dans les nouveaux modes de communications écrites qui ont permis aux aveugles de parvenir peu à peu, en France, à une émancipation intellectuelle et d’accéder à plus de citoyenneté[2]:82.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette ancienne machine et son système d’anaglyptographie, ont joué un rôle particulièrement important dans les nouveaux modes de communications écrites qui ont permis aux aveugles de parvenir peu à peu, en France, à une émancipation intellectuelle et d’accéder à plus de citoyenneté:82.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Récompense</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le raphigraphe reçoit une médaille de platine de la Société d'encouragement pour l'industrie nationale, puis est présentée à l'Exposition universelle de Londres en 1851[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le raphigraphe reçoit une médaille de platine de la Société d'encouragement pour l'industrie nationale, puis est présentée à l'Exposition universelle de Londres en 1851.
 </t>
         </is>
       </c>
